--- a/bugs_list/测试单-定时闹钟.xlsx
+++ b/bugs_list/测试单-定时闹钟.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="784"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="10" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="284">
   <si>
     <t>编号</t>
   </si>
@@ -2062,10 +2062,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>自定义倒计时设置时，按返回键弹出的对话框“</t>
     </r>
@@ -2465,13 +2461,45 @@
   </si>
   <si>
     <t>复检已修改bug，新增编号66~80。待完善：(2)UI界面：时间到(3)字串等细节（4）闹钟、纪念日设置：闪主菜单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只播放一次啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前是播放完音频后自动退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -4056,47 +4084,7 @@
     <cellStyle name="常规 4" xfId="66"/>
     <cellStyle name="常规 6" xfId="7"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4134,11 +4122,16 @@
       <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4212,6 +4205,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4246,6 +4240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4421,11 +4416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4564,7 +4559,7 @@
         <v>42709</v>
       </c>
       <c r="F8" s="180" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="125" customFormat="1" ht="40.5">
@@ -4601,7 +4596,7 @@
         <v>42733</v>
       </c>
       <c r="F10" s="180" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G10" s="171" t="s">
         <v>205</v>
@@ -4816,7 +4811,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H25)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4826,15 +4821,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7009,14 +7004,12 @@
         <v>155</v>
       </c>
       <c r="G59" s="220" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H59" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="I59" s="250" t="s">
-        <v>262</v>
-      </c>
+      <c r="I59" s="250"/>
       <c r="L59" s="147" t="s">
         <v>76</v>
       </c>
@@ -7047,7 +7040,7 @@
         <v>155</v>
       </c>
       <c r="G60" s="245" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H60" s="241" t="s">
         <v>73</v>
@@ -7085,7 +7078,7 @@
         <v>98</v>
       </c>
       <c r="G61" s="239" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H61" s="241" t="s">
         <v>73</v>
@@ -7123,7 +7116,7 @@
         <v>151</v>
       </c>
       <c r="G62" s="239" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H62" s="241" t="s">
         <v>73</v>
@@ -7332,6 +7325,9 @@
       <c r="H68" s="145" t="s">
         <v>73</v>
       </c>
+      <c r="L68" s="147" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="69" spans="1:16" ht="27">
       <c r="A69" s="142">
@@ -7356,6 +7352,9 @@
         <v>240</v>
       </c>
       <c r="H69" s="145"/>
+      <c r="L69" s="147" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="70" spans="1:16" ht="40.5">
       <c r="A70" s="142">
@@ -7408,6 +7407,12 @@
       <c r="H71" s="145" t="s">
         <v>73</v>
       </c>
+      <c r="L71" s="147" t="s">
+        <v>277</v>
+      </c>
+      <c r="N71" s="147" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="72" spans="1:16" ht="27">
       <c r="A72" s="142">
@@ -7426,13 +7431,19 @@
         <v>42734</v>
       </c>
       <c r="F72" s="217" t="s">
+        <v>265</v>
+      </c>
+      <c r="G72" s="232" t="s">
         <v>266</v>
-      </c>
-      <c r="G72" s="232" t="s">
-        <v>267</v>
       </c>
       <c r="H72" s="145" t="s">
         <v>73</v>
+      </c>
+      <c r="L72" s="147" t="s">
+        <v>276</v>
+      </c>
+      <c r="N72" s="147" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="27">
@@ -7455,10 +7466,16 @@
         <v>225</v>
       </c>
       <c r="G73" s="233" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H73" s="145" t="s">
         <v>73</v>
+      </c>
+      <c r="L73" s="147" t="s">
+        <v>276</v>
+      </c>
+      <c r="N73" s="147" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="27">
@@ -7486,6 +7503,12 @@
       <c r="H74" s="228" t="s">
         <v>73</v>
       </c>
+      <c r="L74" s="147" t="s">
+        <v>276</v>
+      </c>
+      <c r="N74" s="147" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="142">
@@ -7509,6 +7532,9 @@
       <c r="G75" s="220" t="s">
         <v>242</v>
       </c>
+      <c r="N75" s="147" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="76" spans="1:16" ht="54">
       <c r="A76" s="142">
@@ -7585,6 +7611,9 @@
         <v>253</v>
       </c>
       <c r="H78" s="145"/>
+      <c r="L78" s="147" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="79" spans="1:16" ht="27">
       <c r="A79" s="142">
@@ -7634,16 +7663,19 @@
         <v>42734</v>
       </c>
       <c r="F80" s="217" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G80" s="248" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H80" s="145" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="40.5">
+      <c r="L80" s="147" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="40.5">
       <c r="A81" s="142">
         <v>79</v>
       </c>
@@ -7660,13 +7692,16 @@
         <v>42734</v>
       </c>
       <c r="F81" s="217" t="s">
+        <v>269</v>
+      </c>
+      <c r="G81" s="222" t="s">
         <v>270</v>
       </c>
-      <c r="G81" s="222" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="27">
+      <c r="N81" s="147" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="27">
       <c r="A82" s="142">
         <v>80</v>
       </c>
@@ -7683,10 +7718,13 @@
         <v>42734</v>
       </c>
       <c r="F82" s="217" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G82" s="222" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="N82" s="147" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7702,27 +7740,27 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H73:I73 H68:H74 H58:H65 I1:I58 I65:I1048576">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79:H80">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H79)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7737,7 +7775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7866,7 +7904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/bugs_list/测试单-定时闹钟.xlsx
+++ b/bugs_list/测试单-定时闹钟.xlsx
@@ -4826,10 +4826,10 @@
   <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J76" sqref="J76"/>
+      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
